--- a/stats_all.xlsx
+++ b/stats_all.xlsx
@@ -421,10 +421,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>22.27</v>
+        <v>22.352</v>
       </c>
       <c r="D2">
-        <v>12.02791052423268</v>
+        <v>11.50659665872871</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -433,17 +433,17 @@
         <v>2.063898561628025</v>
       </c>
       <c r="G2">
-        <v>4.964877446070885</v>
+        <v>4.749689658636805</v>
       </c>
       <c r="H2">
-        <v>17.30512255392912</v>
+        <v>17.6023103413632</v>
       </c>
       <c r="I2">
-        <v>27.23487744607088</v>
+        <v>27.1016896586368</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>cd</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>63.46923076923076</v>
+        <v>56.0695652173913</v>
       </c>
       <c r="D5">
-        <v>51.42529184191024</v>
+        <v>42.36010596156598</v>
       </c>
       <c r="E5">
         <v>23</v>
@@ -547,17 +547,17 @@
         <v>2.073873067904026</v>
       </c>
       <c r="G5">
-        <v>22.23796379034895</v>
+        <v>18.31788345362276</v>
       </c>
       <c r="H5">
-        <v>41.23126697888182</v>
+        <v>37.75168176376854</v>
       </c>
       <c r="I5">
-        <v>85.7071945595797</v>
+        <v>74.38744867101406</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>abcd</t>
+          <t>bcd</t>
         </is>
       </c>
     </row>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>72.375</v>
+        <v>78.46538461538462</v>
       </c>
       <c r="D8">
-        <v>55.5242829760097</v>
+        <v>48.64249123807449</v>
       </c>
       <c r="E8">
         <v>26</v>
@@ -661,13 +661,13 @@
         <v>2.059538552753298</v>
       </c>
       <c r="G8">
-        <v>22.42674323921171</v>
+        <v>19.64712740159549</v>
       </c>
       <c r="H8">
-        <v>49.94825676078828</v>
+        <v>58.81825721378913</v>
       </c>
       <c r="I8">
-        <v>94.80174323921172</v>
+        <v>98.11251201698011</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>113.3928571428571</v>
+        <v>116.232</v>
       </c>
       <c r="D11">
-        <v>57.30771815767541</v>
+        <v>69.87548878779549</v>
       </c>
       <c r="E11">
         <v>25</v>
@@ -775,13 +775,13 @@
         <v>2.063898561628025</v>
       </c>
       <c r="G11">
-        <v>23.65546341516211</v>
+        <v>28.84318416043727</v>
       </c>
       <c r="H11">
-        <v>89.73739372769504</v>
+        <v>87.38881583956274</v>
       </c>
       <c r="I11">
-        <v>137.0483205580192</v>
+        <v>145.0751841604373</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>42.667</v>
+        <v>70.7948</v>
       </c>
       <c r="D14">
-        <v>51.18351471801139</v>
+        <v>55.64519514447466</v>
       </c>
       <c r="E14">
         <v>25</v>
@@ -889,17 +889,17 @@
         <v>2.063898561628025</v>
       </c>
       <c r="G14">
-        <v>21.12751648111412</v>
+        <v>22.96920764403841</v>
       </c>
       <c r="H14">
-        <v>21.53948351888588</v>
+        <v>47.82559235596159</v>
       </c>
       <c r="I14">
-        <v>63.79451648111412</v>
+        <v>93.7640076440384</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bcd</t>
+          <t>abc</t>
         </is>
       </c>
     </row>
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>83.55</v>
+        <v>96.65833333333333</v>
       </c>
       <c r="D17">
-        <v>56.22382125863624</v>
+        <v>48.77255033998803</v>
       </c>
       <c r="E17">
         <v>24</v>
@@ -1003,13 +1003,13 @@
         <v>2.068657610419048</v>
       </c>
       <c r="G17">
-        <v>23.74123755288029</v>
+        <v>20.59484179054454</v>
       </c>
       <c r="H17">
-        <v>59.8087624471197</v>
+        <v>76.0634915427888</v>
       </c>
       <c r="I17">
-        <v>107.2912375528803</v>
+        <v>117.2531751238779</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>9.746153846153845</v>
+        <v>10.60434782608696</v>
       </c>
       <c r="D20">
-        <v>13.42842851221588</v>
+        <v>13.89094139950302</v>
       </c>
       <c r="E20">
         <v>23</v>
@@ -1117,13 +1117,13 @@
         <v>2.073873067904026</v>
       </c>
       <c r="G20">
-        <v>5.806887940159007</v>
+        <v>6.006893510796896</v>
       </c>
       <c r="H20">
-        <v>3.939265905994838</v>
+        <v>4.59745431529006</v>
       </c>
       <c r="I20">
-        <v>15.55304178631285</v>
+        <v>16.61124133688385</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>14.22307692307692</v>
+        <v>18.19130434782609</v>
       </c>
       <c r="D23">
-        <v>14.48816493131284</v>
+        <v>18.44576603410604</v>
       </c>
       <c r="E23">
         <v>23</v>
@@ -1231,17 +1231,17 @@
         <v>2.073873067904026</v>
       </c>
       <c r="G23">
-        <v>6.265152332466963</v>
+        <v>7.976547384752021</v>
       </c>
       <c r="H23">
-        <v>7.957924590609959</v>
+        <v>10.21475696307407</v>
       </c>
       <c r="I23">
-        <v>20.48822925554389</v>
+        <v>26.16785173257811</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>cd</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>27.63333333333333</v>
+        <v>37.65</v>
       </c>
       <c r="D26">
-        <v>30.33928970823147</v>
+        <v>33.22680950023967</v>
       </c>
       <c r="E26">
         <v>24</v>
@@ -1345,17 +1345,17 @@
         <v>2.068657610419048</v>
       </c>
       <c r="G26">
-        <v>12.81115847383175</v>
+        <v>14.03045114704506</v>
       </c>
       <c r="H26">
-        <v>14.82217485950158</v>
+        <v>23.61954885295494</v>
       </c>
       <c r="I26">
-        <v>40.44449180716509</v>
+        <v>51.68045114704506</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>bcd</t>
+          <t>cd</t>
         </is>
       </c>
     </row>
@@ -1447,10 +1447,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>28.97692307692308</v>
+        <v>34.90652173913043</v>
       </c>
       <c r="D29">
-        <v>31.51076942481077</v>
+        <v>44.13566199887627</v>
       </c>
       <c r="E29">
         <v>23</v>
@@ -1459,17 +1459,17 @@
         <v>2.073873067904026</v>
       </c>
       <c r="G29">
-        <v>13.62627851737141</v>
+        <v>19.08569146114606</v>
       </c>
       <c r="H29">
-        <v>15.35064455955167</v>
+        <v>15.82083027798437</v>
       </c>
       <c r="I29">
-        <v>42.60320159429448</v>
+        <v>53.9922132002765</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>bcd</t>
+          <t>cd</t>
         </is>
       </c>
     </row>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="C32">
-        <v>63.48666666666666</v>
+        <v>52.9125</v>
       </c>
       <c r="D32">
-        <v>28.8119237882678</v>
+        <v>31.60721316271087</v>
       </c>
       <c r="E32">
         <v>24</v>
@@ -1573,17 +1573,17 @@
         <v>2.068657610419048</v>
       </c>
       <c r="G32">
-        <v>12.1662084095303</v>
+        <v>13.34655559302062</v>
       </c>
       <c r="H32">
-        <v>51.32045825713637</v>
+        <v>39.56594440697938</v>
       </c>
       <c r="I32">
-        <v>75.65287507619696</v>
+        <v>66.25905559302063</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>abcd</t>
+          <t>bcd</t>
         </is>
       </c>
     </row>
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="C35">
-        <v>45.7</v>
+        <v>50.25217391304348</v>
       </c>
       <c r="D35">
-        <v>37.06363367475551</v>
+        <v>35.86966139644549</v>
       </c>
       <c r="E35">
         <v>23</v>
@@ -1687,13 +1687,13 @@
         <v>2.073873067904026</v>
       </c>
       <c r="G35">
-        <v>16.02751708501251</v>
+        <v>15.5112047542364</v>
       </c>
       <c r="H35">
-        <v>29.67248291498749</v>
+        <v>34.74096915880708</v>
       </c>
       <c r="I35">
-        <v>61.72751708501251</v>
+        <v>65.76337866727988</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
